--- a/员工信息采集.xlsx
+++ b/员工信息采集.xlsx
@@ -350,7 +350,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="712" uniqueCount="256">
   <si>
     <t>姓名*</t>
   </si>
@@ -473,9 +473,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>首源</t>
-  </si>
-  <si>
     <t>设备维修</t>
   </si>
   <si>
@@ -528,10 +525,6 @@
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
   <si>
-    <t>焦化作业区炼焦分厂</t>
-    <phoneticPr fontId="4" type="noConversion"/>
-  </si>
-  <si>
     <t>炉顶炉台清扫</t>
     <phoneticPr fontId="4" type="noConversion"/>
   </si>
@@ -1134,6 +1127,18 @@
   </si>
   <si>
     <t>序号排列</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>焦化</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炼铁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>原料</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1685,8 +1690,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AQ89"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AQ2" sqref="AQ2:AQ89"/>
+    <sheetView tabSelected="1" topLeftCell="K63" workbookViewId="0">
+      <selection activeCell="T91" sqref="T91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -1784,52 +1789,52 @@
         <v>26</v>
       </c>
       <c r="AB1" s="23" t="s">
+        <v>237</v>
+      </c>
+      <c r="AC1" s="23" t="s">
+        <v>238</v>
+      </c>
+      <c r="AD1" s="23" t="s">
         <v>239</v>
       </c>
-      <c r="AC1" s="23" t="s">
+      <c r="AE1" s="23" t="s">
         <v>240</v>
       </c>
-      <c r="AD1" s="23" t="s">
+      <c r="AF1" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="AG1" s="23" t="s">
         <v>241</v>
       </c>
-      <c r="AE1" s="23" t="s">
+      <c r="AH1" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="AI1" s="23" t="s">
         <v>242</v>
       </c>
-      <c r="AF1" s="23" t="s">
+      <c r="AJ1" s="23" t="s">
+        <v>243</v>
+      </c>
+      <c r="AK1" s="23" t="s">
+        <v>244</v>
+      </c>
+      <c r="AL1" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="AM1" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="AN1" s="23" t="s">
+        <v>248</v>
+      </c>
+      <c r="AO1" s="23" t="s">
+        <v>251</v>
+      </c>
+      <c r="AP1" s="23" t="s">
         <v>249</v>
       </c>
-      <c r="AG1" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="AH1" s="23" t="s">
+      <c r="AQ1" s="23" t="s">
         <v>252</v>
-      </c>
-      <c r="AI1" s="23" t="s">
-        <v>244</v>
-      </c>
-      <c r="AJ1" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="AK1" s="23" t="s">
-        <v>246</v>
-      </c>
-      <c r="AL1" s="23" t="s">
-        <v>247</v>
-      </c>
-      <c r="AM1" s="23" t="s">
-        <v>248</v>
-      </c>
-      <c r="AN1" s="23" t="s">
-        <v>250</v>
-      </c>
-      <c r="AO1" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="AP1" s="23" t="s">
-        <v>251</v>
-      </c>
-      <c r="AQ1" s="23" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="2" spans="1:43" ht="48">
@@ -1885,37 +1890,37 @@
         <v>39</v>
       </c>
       <c r="T2" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="U2" s="5" t="s">
         <v>40</v>
-      </c>
-      <c r="U2" s="5" t="s">
-        <v>41</v>
       </c>
       <c r="V2" s="7">
         <v>42857</v>
       </c>
       <c r="W2" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="X2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="X2" s="5" t="s">
+      <c r="Y2" s="5" t="s">
         <v>43</v>
-      </c>
-      <c r="Y2" s="5" t="s">
-        <v>44</v>
       </c>
       <c r="Z2" s="5" t="s">
         <v>27</v>
       </c>
       <c r="AA2" s="6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="AB2" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC2" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD2" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC2" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD2" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE2" s="24">
         <v>1100</v>
@@ -1957,7 +1962,7 @@
     </row>
     <row r="3" spans="1:43" ht="48">
       <c r="A3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
@@ -1967,13 +1972,13 @@
         <v>29</v>
       </c>
       <c r="E3" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F3" s="9" t="s">
         <v>31</v>
       </c>
       <c r="G3" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="H3" s="9" t="s">
         <v>33</v>
@@ -1996,49 +2001,49 @@
         <v>42857</v>
       </c>
       <c r="P3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Q3" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="R3" s="9" t="s">
         <v>38</v>
       </c>
       <c r="S3" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="T3" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T3" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="U3" s="9" t="s">
         <v>40</v>
-      </c>
-      <c r="U3" s="9" t="s">
-        <v>41</v>
       </c>
       <c r="V3" s="11">
         <v>42857</v>
       </c>
       <c r="W3" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X3" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="X3" s="9" t="s">
+      <c r="Y3" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="Y3" s="9" t="s">
-        <v>44</v>
-      </c>
       <c r="Z3" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AA3" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="AB3" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC3" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD3" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC3" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD3" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE3" s="24">
         <v>1100</v>
@@ -2080,7 +2085,7 @@
     </row>
     <row r="4" spans="1:43" ht="48">
       <c r="A4" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="9"/>
       <c r="C4" s="9" t="s">
@@ -2090,7 +2095,7 @@
         <v>29</v>
       </c>
       <c r="E4" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F4" s="9" t="s">
         <v>31</v>
@@ -2105,13 +2110,13 @@
         <v>34</v>
       </c>
       <c r="J4" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="K4" s="13" t="s">
-        <v>55</v>
-      </c>
       <c r="L4" s="13" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="M4" s="9"/>
       <c r="N4" s="9"/>
@@ -2119,49 +2124,49 @@
         <v>42644</v>
       </c>
       <c r="P4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q4" s="10" t="s">
+        <v>55</v>
+      </c>
+      <c r="R4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="Q4" s="10" t="s">
-        <v>56</v>
-      </c>
-      <c r="R4" s="9" t="s">
+      <c r="S4" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>253</v>
+      </c>
+      <c r="U4" s="9" t="s">
         <v>57</v>
-      </c>
-      <c r="S4" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="T4" s="9" t="s">
-        <v>58</v>
-      </c>
-      <c r="U4" s="9" t="s">
-        <v>59</v>
       </c>
       <c r="V4" s="11">
         <v>42644</v>
       </c>
       <c r="W4" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="X4" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="X4" s="9" t="s">
-        <v>43</v>
-      </c>
       <c r="Y4" s="9" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="Z4" s="15" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="AA4" s="13">
         <v>13472938227</v>
       </c>
       <c r="AB4" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC4" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD4" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC4" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD4" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE4" s="24">
         <v>1100</v>
@@ -2203,13 +2208,13 @@
     </row>
     <row r="5" spans="1:43">
       <c r="A5" s="16" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B5" s="24"/>
       <c r="C5" s="24"/>
       <c r="D5" s="24"/>
       <c r="E5" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" s="24"/>
       <c r="G5" s="24"/>
@@ -2227,9 +2232,11 @@
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
       <c r="S5" s="24"/>
-      <c r="T5" s="24"/>
+      <c r="T5" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U5" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V5" s="11">
         <v>42645</v>
@@ -2240,13 +2247,13 @@
       <c r="Z5" s="24"/>
       <c r="AA5" s="24"/>
       <c r="AB5" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC5" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD5" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC5" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD5" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE5" s="24">
         <v>1100</v>
@@ -2288,13 +2295,13 @@
     </row>
     <row r="6" spans="1:43">
       <c r="A6" s="16" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B6" s="24"/>
       <c r="C6" s="24"/>
       <c r="D6" s="24"/>
       <c r="E6" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
@@ -2312,9 +2319,11 @@
       <c r="Q6" s="24"/>
       <c r="R6" s="24"/>
       <c r="S6" s="24"/>
-      <c r="T6" s="24"/>
+      <c r="T6" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U6" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V6" s="11">
         <v>42646</v>
@@ -2325,13 +2334,13 @@
       <c r="Z6" s="24"/>
       <c r="AA6" s="24"/>
       <c r="AB6" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC6" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD6" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC6" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD6" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE6" s="24">
         <v>1100</v>
@@ -2373,13 +2382,13 @@
     </row>
     <row r="7" spans="1:43">
       <c r="A7" s="16" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
       <c r="D7" s="24"/>
       <c r="E7" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
@@ -2397,9 +2406,11 @@
       <c r="Q7" s="24"/>
       <c r="R7" s="24"/>
       <c r="S7" s="24"/>
-      <c r="T7" s="24"/>
+      <c r="T7" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U7" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V7" s="11">
         <v>42647</v>
@@ -2410,13 +2421,13 @@
       <c r="Z7" s="24"/>
       <c r="AA7" s="24"/>
       <c r="AB7" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC7" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD7" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC7" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD7" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE7" s="24">
         <v>1100</v>
@@ -2458,13 +2469,13 @@
     </row>
     <row r="8" spans="1:43">
       <c r="A8" s="16" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B8" s="24"/>
       <c r="C8" s="24"/>
       <c r="D8" s="24"/>
       <c r="E8" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
@@ -2482,9 +2493,11 @@
       <c r="Q8" s="24"/>
       <c r="R8" s="24"/>
       <c r="S8" s="24"/>
-      <c r="T8" s="24"/>
+      <c r="T8" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U8" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V8" s="11">
         <v>42648</v>
@@ -2495,13 +2508,13 @@
       <c r="Z8" s="24"/>
       <c r="AA8" s="24"/>
       <c r="AB8" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC8" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD8" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC8" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD8" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE8" s="24">
         <v>1100</v>
@@ -2543,13 +2556,13 @@
     </row>
     <row r="9" spans="1:43">
       <c r="A9" s="16" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B9" s="24"/>
       <c r="C9" s="24"/>
       <c r="D9" s="24"/>
       <c r="E9" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
@@ -2567,9 +2580,11 @@
       <c r="Q9" s="24"/>
       <c r="R9" s="24"/>
       <c r="S9" s="24"/>
-      <c r="T9" s="24"/>
+      <c r="T9" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U9" s="18" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="V9" s="11">
         <v>42649</v>
@@ -2580,13 +2595,13 @@
       <c r="Z9" s="24"/>
       <c r="AA9" s="24"/>
       <c r="AB9" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC9" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD9" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC9" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD9" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE9" s="24">
         <v>1100</v>
@@ -2628,13 +2643,13 @@
     </row>
     <row r="10" spans="1:43">
       <c r="A10" s="16" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B10" s="24"/>
       <c r="C10" s="24"/>
       <c r="D10" s="24"/>
       <c r="E10" s="16" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
@@ -2652,9 +2667,11 @@
       <c r="Q10" s="24"/>
       <c r="R10" s="24"/>
       <c r="S10" s="24"/>
-      <c r="T10" s="24"/>
+      <c r="T10" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U10" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V10" s="11">
         <v>42650</v>
@@ -2665,13 +2682,13 @@
       <c r="Z10" s="24"/>
       <c r="AA10" s="24"/>
       <c r="AB10" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC10" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD10" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC10" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD10" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE10" s="24">
         <v>1100</v>
@@ -2713,13 +2730,13 @@
     </row>
     <row r="11" spans="1:43">
       <c r="A11" s="16" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B11" s="24"/>
       <c r="C11" s="24"/>
       <c r="D11" s="24"/>
       <c r="E11" s="16" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
@@ -2737,9 +2754,11 @@
       <c r="Q11" s="24"/>
       <c r="R11" s="24"/>
       <c r="S11" s="24"/>
-      <c r="T11" s="24"/>
+      <c r="T11" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U11" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V11" s="11">
         <v>42651</v>
@@ -2750,13 +2769,13 @@
       <c r="Z11" s="24"/>
       <c r="AA11" s="24"/>
       <c r="AB11" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC11" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD11" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC11" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD11" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE11" s="24">
         <v>1100</v>
@@ -2798,13 +2817,13 @@
     </row>
     <row r="12" spans="1:43">
       <c r="A12" s="16" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B12" s="24"/>
       <c r="C12" s="24"/>
       <c r="D12" s="24"/>
       <c r="E12" s="16" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
@@ -2822,9 +2841,11 @@
       <c r="Q12" s="24"/>
       <c r="R12" s="24"/>
       <c r="S12" s="24"/>
-      <c r="T12" s="24"/>
+      <c r="T12" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U12" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V12" s="11">
         <v>42652</v>
@@ -2835,13 +2856,13 @@
       <c r="Z12" s="24"/>
       <c r="AA12" s="24"/>
       <c r="AB12" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC12" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD12" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC12" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD12" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE12" s="24">
         <v>1100</v>
@@ -2883,13 +2904,13 @@
     </row>
     <row r="13" spans="1:43">
       <c r="A13" s="16" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B13" s="24"/>
       <c r="C13" s="24"/>
       <c r="D13" s="24"/>
       <c r="E13" s="16" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
@@ -2907,9 +2928,11 @@
       <c r="Q13" s="24"/>
       <c r="R13" s="24"/>
       <c r="S13" s="24"/>
-      <c r="T13" s="24"/>
+      <c r="T13" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U13" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V13" s="11">
         <v>42654</v>
@@ -2920,13 +2943,13 @@
       <c r="Z13" s="24"/>
       <c r="AA13" s="24"/>
       <c r="AB13" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC13" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD13" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC13" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD13" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE13" s="24">
         <v>1100</v>
@@ -2968,13 +2991,13 @@
     </row>
     <row r="14" spans="1:43">
       <c r="A14" s="16" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B14" s="24"/>
       <c r="C14" s="24"/>
       <c r="D14" s="24"/>
       <c r="E14" s="16" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
@@ -2992,9 +3015,11 @@
       <c r="Q14" s="24"/>
       <c r="R14" s="24"/>
       <c r="S14" s="24"/>
-      <c r="T14" s="24"/>
+      <c r="T14" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U14" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V14" s="11">
         <v>42655</v>
@@ -3005,13 +3030,13 @@
       <c r="Z14" s="24"/>
       <c r="AA14" s="24"/>
       <c r="AB14" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC14" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD14" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC14" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD14" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE14" s="24">
         <v>1100</v>
@@ -3053,13 +3078,13 @@
     </row>
     <row r="15" spans="1:43">
       <c r="A15" s="16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B15" s="24"/>
       <c r="C15" s="24"/>
       <c r="D15" s="24"/>
       <c r="E15" s="16" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
@@ -3077,9 +3102,11 @@
       <c r="Q15" s="24"/>
       <c r="R15" s="24"/>
       <c r="S15" s="24"/>
-      <c r="T15" s="24"/>
+      <c r="T15" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U15" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V15" s="11">
         <v>42656</v>
@@ -3090,13 +3117,13 @@
       <c r="Z15" s="24"/>
       <c r="AA15" s="24"/>
       <c r="AB15" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC15" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD15" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC15" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD15" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE15" s="24">
         <v>1100</v>
@@ -3138,13 +3165,13 @@
     </row>
     <row r="16" spans="1:43">
       <c r="A16" s="16" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B16" s="24"/>
       <c r="C16" s="24"/>
       <c r="D16" s="24"/>
       <c r="E16" s="16" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
@@ -3162,9 +3189,11 @@
       <c r="Q16" s="24"/>
       <c r="R16" s="24"/>
       <c r="S16" s="24"/>
-      <c r="T16" s="24"/>
+      <c r="T16" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U16" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V16" s="11">
         <v>42657</v>
@@ -3175,13 +3204,13 @@
       <c r="Z16" s="24"/>
       <c r="AA16" s="24"/>
       <c r="AB16" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC16" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD16" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC16" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD16" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE16" s="24">
         <v>1100</v>
@@ -3223,13 +3252,13 @@
     </row>
     <row r="17" spans="1:43">
       <c r="A17" s="16" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="B17" s="24"/>
       <c r="C17" s="24"/>
       <c r="D17" s="24"/>
       <c r="E17" s="16" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
@@ -3247,9 +3276,11 @@
       <c r="Q17" s="24"/>
       <c r="R17" s="24"/>
       <c r="S17" s="24"/>
-      <c r="T17" s="24"/>
+      <c r="T17" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U17" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V17" s="11">
         <v>42658</v>
@@ -3260,13 +3291,13 @@
       <c r="Z17" s="24"/>
       <c r="AA17" s="24"/>
       <c r="AB17" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC17" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD17" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC17" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD17" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE17" s="24">
         <v>1100</v>
@@ -3308,13 +3339,13 @@
     </row>
     <row r="18" spans="1:43">
       <c r="A18" s="16" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B18" s="24"/>
       <c r="C18" s="24"/>
       <c r="D18" s="24"/>
       <c r="E18" s="16" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
@@ -3332,9 +3363,11 @@
       <c r="Q18" s="24"/>
       <c r="R18" s="24"/>
       <c r="S18" s="24"/>
-      <c r="T18" s="24"/>
+      <c r="T18" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U18" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V18" s="11">
         <v>42659</v>
@@ -3345,13 +3378,13 @@
       <c r="Z18" s="24"/>
       <c r="AA18" s="24"/>
       <c r="AB18" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC18" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD18" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC18" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD18" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE18" s="24">
         <v>1100</v>
@@ -3393,13 +3426,13 @@
     </row>
     <row r="19" spans="1:43">
       <c r="A19" s="16" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B19" s="24"/>
       <c r="C19" s="24"/>
       <c r="D19" s="24"/>
       <c r="E19" s="16" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
@@ -3417,9 +3450,11 @@
       <c r="Q19" s="24"/>
       <c r="R19" s="24"/>
       <c r="S19" s="24"/>
-      <c r="T19" s="24"/>
+      <c r="T19" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U19" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V19" s="11">
         <v>42660</v>
@@ -3430,13 +3465,13 @@
       <c r="Z19" s="24"/>
       <c r="AA19" s="24"/>
       <c r="AB19" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC19" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD19" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC19" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD19" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE19" s="24">
         <v>1100</v>
@@ -3478,13 +3513,13 @@
     </row>
     <row r="20" spans="1:43">
       <c r="A20" s="16" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="B20" s="24"/>
       <c r="C20" s="24"/>
       <c r="D20" s="24"/>
       <c r="E20" s="16" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
@@ -3502,9 +3537,11 @@
       <c r="Q20" s="24"/>
       <c r="R20" s="24"/>
       <c r="S20" s="24"/>
-      <c r="T20" s="24"/>
+      <c r="T20" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U20" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V20" s="11">
         <v>42661</v>
@@ -3515,13 +3552,13 @@
       <c r="Z20" s="24"/>
       <c r="AA20" s="24"/>
       <c r="AB20" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC20" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD20" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC20" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD20" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE20" s="24">
         <v>1100</v>
@@ -3563,13 +3600,13 @@
     </row>
     <row r="21" spans="1:43">
       <c r="A21" s="16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B21" s="24"/>
       <c r="C21" s="24"/>
       <c r="D21" s="24"/>
       <c r="E21" s="16" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
@@ -3587,9 +3624,11 @@
       <c r="Q21" s="24"/>
       <c r="R21" s="24"/>
       <c r="S21" s="24"/>
-      <c r="T21" s="24"/>
+      <c r="T21" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U21" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V21" s="11">
         <v>42662</v>
@@ -3600,13 +3639,13 @@
       <c r="Z21" s="24"/>
       <c r="AA21" s="24"/>
       <c r="AB21" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC21" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD21" s="20" t="s">
         <v>235</v>
-      </c>
-      <c r="AD21" s="20" t="s">
-        <v>237</v>
       </c>
       <c r="AE21" s="24">
         <v>1100</v>
@@ -3648,13 +3687,13 @@
     </row>
     <row r="22" spans="1:43">
       <c r="A22" s="16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B22" s="24"/>
       <c r="C22" s="24"/>
       <c r="D22" s="24"/>
       <c r="E22" s="16" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
@@ -3672,9 +3711,11 @@
       <c r="Q22" s="24"/>
       <c r="R22" s="24"/>
       <c r="S22" s="24"/>
-      <c r="T22" s="24"/>
+      <c r="T22" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U22" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V22" s="11">
         <v>42663</v>
@@ -3685,13 +3726,13 @@
       <c r="Z22" s="24"/>
       <c r="AA22" s="24"/>
       <c r="AB22" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC22" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD22" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC22" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD22" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE22" s="24">
         <v>1100</v>
@@ -3733,13 +3774,13 @@
     </row>
     <row r="23" spans="1:43">
       <c r="A23" s="16" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B23" s="24"/>
       <c r="C23" s="24"/>
       <c r="D23" s="24"/>
       <c r="E23" s="16" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
@@ -3757,9 +3798,11 @@
       <c r="Q23" s="24"/>
       <c r="R23" s="24"/>
       <c r="S23" s="24"/>
-      <c r="T23" s="24"/>
+      <c r="T23" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U23" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V23" s="11">
         <v>42664</v>
@@ -3770,13 +3813,13 @@
       <c r="Z23" s="24"/>
       <c r="AA23" s="24"/>
       <c r="AB23" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC23" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD23" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC23" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD23" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE23" s="24">
         <v>1100</v>
@@ -3818,13 +3861,13 @@
     </row>
     <row r="24" spans="1:43">
       <c r="A24" s="16" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B24" s="24"/>
       <c r="C24" s="24"/>
       <c r="D24" s="24"/>
       <c r="E24" s="16" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
@@ -3842,9 +3885,11 @@
       <c r="Q24" s="24"/>
       <c r="R24" s="24"/>
       <c r="S24" s="24"/>
-      <c r="T24" s="24"/>
+      <c r="T24" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U24" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V24" s="11">
         <v>42665</v>
@@ -3855,13 +3900,13 @@
       <c r="Z24" s="24"/>
       <c r="AA24" s="24"/>
       <c r="AB24" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC24" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD24" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC24" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD24" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE24" s="24">
         <v>1100</v>
@@ -3903,13 +3948,13 @@
     </row>
     <row r="25" spans="1:43">
       <c r="A25" s="16" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B25" s="24"/>
       <c r="C25" s="24"/>
       <c r="D25" s="24"/>
       <c r="E25" s="16" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
@@ -3927,9 +3972,11 @@
       <c r="Q25" s="24"/>
       <c r="R25" s="24"/>
       <c r="S25" s="24"/>
-      <c r="T25" s="24"/>
+      <c r="T25" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U25" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V25" s="11">
         <v>42666</v>
@@ -3940,13 +3987,13 @@
       <c r="Z25" s="24"/>
       <c r="AA25" s="24"/>
       <c r="AB25" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC25" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD25" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC25" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD25" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE25" s="24">
         <v>1100</v>
@@ -3988,13 +4035,13 @@
     </row>
     <row r="26" spans="1:43">
       <c r="A26" s="16" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B26" s="24"/>
       <c r="C26" s="24"/>
       <c r="D26" s="24"/>
       <c r="E26" s="16" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F26" s="24"/>
       <c r="G26" s="24"/>
@@ -4012,9 +4059,11 @@
       <c r="Q26" s="24"/>
       <c r="R26" s="24"/>
       <c r="S26" s="24"/>
-      <c r="T26" s="24"/>
+      <c r="T26" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U26" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V26" s="11">
         <v>42667</v>
@@ -4025,13 +4074,13 @@
       <c r="Z26" s="24"/>
       <c r="AA26" s="24"/>
       <c r="AB26" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC26" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD26" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC26" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD26" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE26" s="24">
         <v>1100</v>
@@ -4073,13 +4122,13 @@
     </row>
     <row r="27" spans="1:43">
       <c r="A27" s="16" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B27" s="24"/>
       <c r="C27" s="24"/>
       <c r="D27" s="24"/>
       <c r="E27" s="16" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F27" s="24"/>
       <c r="G27" s="24"/>
@@ -4097,9 +4146,11 @@
       <c r="Q27" s="24"/>
       <c r="R27" s="24"/>
       <c r="S27" s="24"/>
-      <c r="T27" s="24"/>
+      <c r="T27" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U27" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V27" s="11">
         <v>42668</v>
@@ -4110,13 +4161,13 @@
       <c r="Z27" s="24"/>
       <c r="AA27" s="24"/>
       <c r="AB27" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC27" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD27" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC27" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD27" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE27" s="24">
         <v>1100</v>
@@ -4158,13 +4209,13 @@
     </row>
     <row r="28" spans="1:43">
       <c r="A28" s="16" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B28" s="24"/>
       <c r="C28" s="24"/>
       <c r="D28" s="24"/>
       <c r="E28" s="16" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F28" s="24"/>
       <c r="G28" s="24"/>
@@ -4182,9 +4233,11 @@
       <c r="Q28" s="24"/>
       <c r="R28" s="24"/>
       <c r="S28" s="24"/>
-      <c r="T28" s="24"/>
+      <c r="T28" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U28" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V28" s="11">
         <v>42669</v>
@@ -4195,13 +4248,13 @@
       <c r="Z28" s="24"/>
       <c r="AA28" s="24"/>
       <c r="AB28" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC28" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD28" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC28" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD28" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE28" s="24">
         <v>1100</v>
@@ -4243,13 +4296,13 @@
     </row>
     <row r="29" spans="1:43">
       <c r="A29" s="16" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B29" s="24"/>
       <c r="C29" s="24"/>
       <c r="D29" s="24"/>
       <c r="E29" s="16" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F29" s="24"/>
       <c r="G29" s="24"/>
@@ -4267,9 +4320,11 @@
       <c r="Q29" s="24"/>
       <c r="R29" s="24"/>
       <c r="S29" s="24"/>
-      <c r="T29" s="24"/>
+      <c r="T29" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U29" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V29" s="11">
         <v>42670</v>
@@ -4280,13 +4335,13 @@
       <c r="Z29" s="24"/>
       <c r="AA29" s="24"/>
       <c r="AB29" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC29" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD29" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC29" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD29" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE29" s="24">
         <v>1100</v>
@@ -4328,13 +4383,13 @@
     </row>
     <row r="30" spans="1:43">
       <c r="A30" s="16" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B30" s="24"/>
       <c r="C30" s="24"/>
       <c r="D30" s="24"/>
       <c r="E30" s="16" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F30" s="24"/>
       <c r="G30" s="24"/>
@@ -4352,9 +4407,11 @@
       <c r="Q30" s="24"/>
       <c r="R30" s="24"/>
       <c r="S30" s="24"/>
-      <c r="T30" s="24"/>
+      <c r="T30" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U30" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V30" s="11">
         <v>42671</v>
@@ -4365,13 +4422,13 @@
       <c r="Z30" s="24"/>
       <c r="AA30" s="24"/>
       <c r="AB30" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC30" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD30" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC30" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD30" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE30" s="24">
         <v>1100</v>
@@ -4413,13 +4470,13 @@
     </row>
     <row r="31" spans="1:43">
       <c r="A31" s="16" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B31" s="24"/>
       <c r="C31" s="24"/>
       <c r="D31" s="24"/>
       <c r="E31" s="16" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F31" s="24"/>
       <c r="G31" s="24"/>
@@ -4437,9 +4494,11 @@
       <c r="Q31" s="24"/>
       <c r="R31" s="24"/>
       <c r="S31" s="24"/>
-      <c r="T31" s="24"/>
+      <c r="T31" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U31" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V31" s="11">
         <v>42672</v>
@@ -4450,13 +4509,13 @@
       <c r="Z31" s="24"/>
       <c r="AA31" s="24"/>
       <c r="AB31" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC31" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD31" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC31" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD31" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE31" s="24">
         <v>1100</v>
@@ -4498,13 +4557,13 @@
     </row>
     <row r="32" spans="1:43">
       <c r="A32" s="16" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B32" s="24"/>
       <c r="C32" s="24"/>
       <c r="D32" s="24"/>
       <c r="E32" s="16" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F32" s="24"/>
       <c r="G32" s="24"/>
@@ -4522,9 +4581,11 @@
       <c r="Q32" s="24"/>
       <c r="R32" s="24"/>
       <c r="S32" s="24"/>
-      <c r="T32" s="24"/>
+      <c r="T32" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U32" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V32" s="11">
         <v>42673</v>
@@ -4535,13 +4596,13 @@
       <c r="Z32" s="24"/>
       <c r="AA32" s="24"/>
       <c r="AB32" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC32" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD32" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC32" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD32" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE32" s="24">
         <v>1100</v>
@@ -4583,13 +4644,13 @@
     </row>
     <row r="33" spans="1:43">
       <c r="A33" s="16" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B33" s="24"/>
       <c r="C33" s="24"/>
       <c r="D33" s="24"/>
       <c r="E33" s="16" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F33" s="24"/>
       <c r="G33" s="24"/>
@@ -4607,9 +4668,11 @@
       <c r="Q33" s="24"/>
       <c r="R33" s="24"/>
       <c r="S33" s="24"/>
-      <c r="T33" s="24"/>
+      <c r="T33" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U33" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V33" s="11">
         <v>42674</v>
@@ -4620,13 +4683,13 @@
       <c r="Z33" s="24"/>
       <c r="AA33" s="24"/>
       <c r="AB33" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC33" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD33" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC33" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD33" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE33" s="24">
         <v>1100</v>
@@ -4668,13 +4731,13 @@
     </row>
     <row r="34" spans="1:43">
       <c r="A34" s="16" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B34" s="24"/>
       <c r="C34" s="24"/>
       <c r="D34" s="24"/>
       <c r="E34" s="16" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F34" s="24"/>
       <c r="G34" s="24"/>
@@ -4692,9 +4755,11 @@
       <c r="Q34" s="24"/>
       <c r="R34" s="24"/>
       <c r="S34" s="24"/>
-      <c r="T34" s="24"/>
+      <c r="T34" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U34" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V34" s="11">
         <v>42675</v>
@@ -4705,13 +4770,13 @@
       <c r="Z34" s="24"/>
       <c r="AA34" s="24"/>
       <c r="AB34" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC34" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD34" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC34" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD34" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE34" s="24">
         <v>1100</v>
@@ -4753,13 +4818,13 @@
     </row>
     <row r="35" spans="1:43">
       <c r="A35" s="16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B35" s="24"/>
       <c r="C35" s="24"/>
       <c r="D35" s="24"/>
       <c r="E35" s="16" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F35" s="24"/>
       <c r="G35" s="24"/>
@@ -4777,9 +4842,11 @@
       <c r="Q35" s="24"/>
       <c r="R35" s="24"/>
       <c r="S35" s="24"/>
-      <c r="T35" s="24"/>
+      <c r="T35" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U35" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V35" s="11">
         <v>42676</v>
@@ -4790,13 +4857,13 @@
       <c r="Z35" s="24"/>
       <c r="AA35" s="24"/>
       <c r="AB35" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC35" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD35" s="20" t="s">
         <v>235</v>
-      </c>
-      <c r="AD35" s="20" t="s">
-        <v>237</v>
       </c>
       <c r="AE35" s="24">
         <v>1100</v>
@@ -4838,13 +4905,13 @@
     </row>
     <row r="36" spans="1:43">
       <c r="A36" s="16" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" s="24"/>
       <c r="C36" s="24"/>
       <c r="D36" s="24"/>
       <c r="E36" s="16" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F36" s="24"/>
       <c r="G36" s="24"/>
@@ -4862,9 +4929,11 @@
       <c r="Q36" s="24"/>
       <c r="R36" s="24"/>
       <c r="S36" s="24"/>
-      <c r="T36" s="24"/>
+      <c r="T36" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U36" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V36" s="11">
         <v>42677</v>
@@ -4875,13 +4944,13 @@
       <c r="Z36" s="24"/>
       <c r="AA36" s="24"/>
       <c r="AB36" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC36" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD36" s="20" t="s">
         <v>235</v>
-      </c>
-      <c r="AD36" s="20" t="s">
-        <v>237</v>
       </c>
       <c r="AE36" s="24">
         <v>1100</v>
@@ -4923,13 +4992,13 @@
     </row>
     <row r="37" spans="1:43">
       <c r="A37" s="16" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B37" s="24"/>
       <c r="C37" s="24"/>
       <c r="D37" s="24"/>
       <c r="E37" s="16" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F37" s="24"/>
       <c r="G37" s="24"/>
@@ -4947,9 +5016,11 @@
       <c r="Q37" s="24"/>
       <c r="R37" s="24"/>
       <c r="S37" s="24"/>
-      <c r="T37" s="24"/>
+      <c r="T37" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U37" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V37" s="11">
         <v>42678</v>
@@ -4960,13 +5031,13 @@
       <c r="Z37" s="24"/>
       <c r="AA37" s="24"/>
       <c r="AB37" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC37" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD37" s="20" t="s">
         <v>235</v>
-      </c>
-      <c r="AD37" s="20" t="s">
-        <v>237</v>
       </c>
       <c r="AE37" s="24">
         <v>1100</v>
@@ -5008,13 +5079,13 @@
     </row>
     <row r="38" spans="1:43">
       <c r="A38" s="16" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B38" s="24"/>
       <c r="C38" s="24"/>
       <c r="D38" s="24"/>
       <c r="E38" s="16" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="F38" s="24"/>
       <c r="G38" s="24"/>
@@ -5032,9 +5103,11 @@
       <c r="Q38" s="24"/>
       <c r="R38" s="24"/>
       <c r="S38" s="24"/>
-      <c r="T38" s="24"/>
+      <c r="T38" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U38" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V38" s="11">
         <v>42679</v>
@@ -5045,13 +5118,13 @@
       <c r="Z38" s="24"/>
       <c r="AA38" s="24"/>
       <c r="AB38" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC38" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD38" s="20" t="s">
         <v>235</v>
-      </c>
-      <c r="AD38" s="20" t="s">
-        <v>237</v>
       </c>
       <c r="AE38" s="24">
         <v>1100</v>
@@ -5093,13 +5166,13 @@
     </row>
     <row r="39" spans="1:43">
       <c r="A39" s="16" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B39" s="24"/>
       <c r="C39" s="24"/>
       <c r="D39" s="24"/>
       <c r="E39" s="16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="F39" s="24"/>
       <c r="G39" s="24"/>
@@ -5117,9 +5190,11 @@
       <c r="Q39" s="24"/>
       <c r="R39" s="24"/>
       <c r="S39" s="24"/>
-      <c r="T39" s="24"/>
+      <c r="T39" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U39" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V39" s="11">
         <v>42680</v>
@@ -5130,13 +5205,13 @@
       <c r="Z39" s="24"/>
       <c r="AA39" s="24"/>
       <c r="AB39" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC39" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD39" s="20" t="s">
         <v>235</v>
-      </c>
-      <c r="AD39" s="20" t="s">
-        <v>237</v>
       </c>
       <c r="AE39" s="24">
         <v>1100</v>
@@ -5178,13 +5253,13 @@
     </row>
     <row r="40" spans="1:43">
       <c r="A40" s="16" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="B40" s="24"/>
       <c r="C40" s="24"/>
       <c r="D40" s="24"/>
       <c r="E40" s="16" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="F40" s="24"/>
       <c r="G40" s="24"/>
@@ -5202,9 +5277,11 @@
       <c r="Q40" s="24"/>
       <c r="R40" s="24"/>
       <c r="S40" s="24"/>
-      <c r="T40" s="24"/>
+      <c r="T40" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U40" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V40" s="11">
         <v>42681</v>
@@ -5215,13 +5292,13 @@
       <c r="Z40" s="24"/>
       <c r="AA40" s="24"/>
       <c r="AB40" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC40" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD40" s="20" t="s">
         <v>235</v>
-      </c>
-      <c r="AD40" s="20" t="s">
-        <v>237</v>
       </c>
       <c r="AE40" s="24">
         <v>1100</v>
@@ -5263,13 +5340,13 @@
     </row>
     <row r="41" spans="1:43">
       <c r="A41" s="16" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B41" s="24"/>
       <c r="C41" s="24"/>
       <c r="D41" s="24"/>
       <c r="E41" s="16" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="F41" s="24"/>
       <c r="G41" s="24"/>
@@ -5287,9 +5364,11 @@
       <c r="Q41" s="24"/>
       <c r="R41" s="24"/>
       <c r="S41" s="24"/>
-      <c r="T41" s="24"/>
+      <c r="T41" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U41" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V41" s="11">
         <v>42682</v>
@@ -5300,13 +5379,13 @@
       <c r="Z41" s="24"/>
       <c r="AA41" s="24"/>
       <c r="AB41" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC41" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD41" s="20" t="s">
         <v>235</v>
-      </c>
-      <c r="AD41" s="20" t="s">
-        <v>237</v>
       </c>
       <c r="AE41" s="24">
         <v>1100</v>
@@ -5348,13 +5427,13 @@
     </row>
     <row r="42" spans="1:43">
       <c r="A42" s="16" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B42" s="24"/>
       <c r="C42" s="24"/>
       <c r="D42" s="24"/>
       <c r="E42" s="16" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="F42" s="24"/>
       <c r="G42" s="24"/>
@@ -5372,9 +5451,11 @@
       <c r="Q42" s="24"/>
       <c r="R42" s="24"/>
       <c r="S42" s="24"/>
-      <c r="T42" s="24"/>
+      <c r="T42" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U42" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V42" s="11">
         <v>42683</v>
@@ -5385,13 +5466,13 @@
       <c r="Z42" s="24"/>
       <c r="AA42" s="24"/>
       <c r="AB42" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC42" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD42" s="20" t="s">
         <v>235</v>
-      </c>
-      <c r="AD42" s="20" t="s">
-        <v>237</v>
       </c>
       <c r="AE42" s="24">
         <v>1100</v>
@@ -5433,13 +5514,13 @@
     </row>
     <row r="43" spans="1:43">
       <c r="A43" s="16" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B43" s="24"/>
       <c r="C43" s="24"/>
       <c r="D43" s="24"/>
       <c r="E43" s="16" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="F43" s="24"/>
       <c r="G43" s="24"/>
@@ -5457,9 +5538,11 @@
       <c r="Q43" s="24"/>
       <c r="R43" s="24"/>
       <c r="S43" s="24"/>
-      <c r="T43" s="24"/>
+      <c r="T43" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U43" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V43" s="11">
         <v>42684</v>
@@ -5470,13 +5553,13 @@
       <c r="Z43" s="24"/>
       <c r="AA43" s="24"/>
       <c r="AB43" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC43" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD43" s="20" t="s">
         <v>235</v>
-      </c>
-      <c r="AD43" s="20" t="s">
-        <v>237</v>
       </c>
       <c r="AE43" s="24">
         <v>1100</v>
@@ -5518,13 +5601,13 @@
     </row>
     <row r="44" spans="1:43">
       <c r="A44" s="16" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B44" s="24"/>
       <c r="C44" s="24"/>
       <c r="D44" s="24"/>
       <c r="E44" s="16" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="F44" s="24"/>
       <c r="G44" s="24"/>
@@ -5542,9 +5625,11 @@
       <c r="Q44" s="24"/>
       <c r="R44" s="24"/>
       <c r="S44" s="24"/>
-      <c r="T44" s="24"/>
+      <c r="T44" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U44" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V44" s="11">
         <v>42685</v>
@@ -5555,13 +5640,13 @@
       <c r="Z44" s="24"/>
       <c r="AA44" s="24"/>
       <c r="AB44" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC44" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD44" s="20" t="s">
         <v>235</v>
-      </c>
-      <c r="AD44" s="20" t="s">
-        <v>237</v>
       </c>
       <c r="AE44" s="24">
         <v>1100</v>
@@ -5603,13 +5688,13 @@
     </row>
     <row r="45" spans="1:43">
       <c r="A45" s="16" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B45" s="24"/>
       <c r="C45" s="24"/>
       <c r="D45" s="24"/>
       <c r="E45" s="16" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="F45" s="24"/>
       <c r="G45" s="24"/>
@@ -5627,9 +5712,11 @@
       <c r="Q45" s="24"/>
       <c r="R45" s="24"/>
       <c r="S45" s="24"/>
-      <c r="T45" s="24"/>
+      <c r="T45" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U45" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V45" s="11">
         <v>42686</v>
@@ -5640,13 +5727,13 @@
       <c r="Z45" s="24"/>
       <c r="AA45" s="24"/>
       <c r="AB45" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC45" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD45" s="20" t="s">
         <v>235</v>
-      </c>
-      <c r="AD45" s="20" t="s">
-        <v>237</v>
       </c>
       <c r="AE45" s="24">
         <v>1100</v>
@@ -5688,13 +5775,13 @@
     </row>
     <row r="46" spans="1:43">
       <c r="A46" s="16" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B46" s="24"/>
       <c r="C46" s="24"/>
       <c r="D46" s="24"/>
       <c r="E46" s="16" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="F46" s="24"/>
       <c r="G46" s="24"/>
@@ -5712,9 +5799,11 @@
       <c r="Q46" s="24"/>
       <c r="R46" s="24"/>
       <c r="S46" s="24"/>
-      <c r="T46" s="24"/>
+      <c r="T46" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U46" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V46" s="11">
         <v>42687</v>
@@ -5725,13 +5814,13 @@
       <c r="Z46" s="24"/>
       <c r="AA46" s="24"/>
       <c r="AB46" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC46" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AD46" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AE46" s="24">
         <v>1100</v>
@@ -5773,13 +5862,13 @@
     </row>
     <row r="47" spans="1:43">
       <c r="A47" s="16" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B47" s="24"/>
       <c r="C47" s="24"/>
       <c r="D47" s="24"/>
       <c r="E47" s="16" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="F47" s="24"/>
       <c r="G47" s="24"/>
@@ -5797,9 +5886,11 @@
       <c r="Q47" s="24"/>
       <c r="R47" s="24"/>
       <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
+      <c r="T47" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U47" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V47" s="11">
         <v>42688</v>
@@ -5810,13 +5901,13 @@
       <c r="Z47" s="24"/>
       <c r="AA47" s="24"/>
       <c r="AB47" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC47" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AD47" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AE47" s="24">
         <v>1100</v>
@@ -5858,13 +5949,13 @@
     </row>
     <row r="48" spans="1:43">
       <c r="A48" s="16" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B48" s="24"/>
       <c r="C48" s="24"/>
       <c r="D48" s="24"/>
       <c r="E48" s="16" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="F48" s="24"/>
       <c r="G48" s="24"/>
@@ -5882,9 +5973,11 @@
       <c r="Q48" s="24"/>
       <c r="R48" s="24"/>
       <c r="S48" s="24"/>
-      <c r="T48" s="24"/>
+      <c r="T48" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U48" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V48" s="11">
         <v>42689</v>
@@ -5895,13 +5988,13 @@
       <c r="Z48" s="24"/>
       <c r="AA48" s="24"/>
       <c r="AB48" s="19" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC48" s="19" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="AD48" s="20" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="AE48" s="24">
         <v>1100</v>
@@ -5943,13 +6036,13 @@
     </row>
     <row r="49" spans="1:43">
       <c r="A49" s="16" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B49" s="24"/>
       <c r="C49" s="24"/>
       <c r="D49" s="24"/>
       <c r="E49" s="16" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="F49" s="24"/>
       <c r="G49" s="24"/>
@@ -5967,9 +6060,11 @@
       <c r="Q49" s="24"/>
       <c r="R49" s="24"/>
       <c r="S49" s="24"/>
-      <c r="T49" s="24"/>
+      <c r="T49" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U49" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V49" s="11">
         <v>42690</v>
@@ -5980,13 +6075,13 @@
       <c r="Z49" s="24"/>
       <c r="AA49" s="24"/>
       <c r="AB49" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC49" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD49" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC49" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD49" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE49" s="24">
         <v>1100</v>
@@ -6028,13 +6123,13 @@
     </row>
     <row r="50" spans="1:43">
       <c r="A50" s="16" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B50" s="24"/>
       <c r="C50" s="24"/>
       <c r="D50" s="24"/>
       <c r="E50" s="16" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="F50" s="24"/>
       <c r="G50" s="24"/>
@@ -6052,9 +6147,11 @@
       <c r="Q50" s="24"/>
       <c r="R50" s="24"/>
       <c r="S50" s="24"/>
-      <c r="T50" s="24"/>
+      <c r="T50" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U50" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V50" s="11">
         <v>42691</v>
@@ -6065,13 +6162,13 @@
       <c r="Z50" s="24"/>
       <c r="AA50" s="24"/>
       <c r="AB50" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC50" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD50" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC50" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD50" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE50" s="24">
         <v>1100</v>
@@ -6113,13 +6210,13 @@
     </row>
     <row r="51" spans="1:43">
       <c r="A51" s="16" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B51" s="24"/>
       <c r="C51" s="24"/>
       <c r="D51" s="24"/>
       <c r="E51" s="16" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="F51" s="24"/>
       <c r="G51" s="24"/>
@@ -6137,9 +6234,11 @@
       <c r="Q51" s="24"/>
       <c r="R51" s="24"/>
       <c r="S51" s="24"/>
-      <c r="T51" s="24"/>
+      <c r="T51" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U51" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V51" s="11">
         <v>42692</v>
@@ -6150,13 +6249,13 @@
       <c r="Z51" s="24"/>
       <c r="AA51" s="24"/>
       <c r="AB51" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC51" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD51" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC51" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD51" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE51" s="24">
         <v>1100</v>
@@ -6198,13 +6297,13 @@
     </row>
     <row r="52" spans="1:43">
       <c r="A52" s="16" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B52" s="24"/>
       <c r="C52" s="24"/>
       <c r="D52" s="24"/>
       <c r="E52" s="16" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="F52" s="24"/>
       <c r="G52" s="24"/>
@@ -6222,9 +6321,11 @@
       <c r="Q52" s="24"/>
       <c r="R52" s="24"/>
       <c r="S52" s="24"/>
-      <c r="T52" s="24"/>
+      <c r="T52" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U52" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V52" s="11">
         <v>42693</v>
@@ -6235,13 +6336,13 @@
       <c r="Z52" s="24"/>
       <c r="AA52" s="24"/>
       <c r="AB52" s="19" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC52" s="19" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD52" s="20" t="s">
         <v>234</v>
-      </c>
-      <c r="AC52" s="19" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD52" s="20" t="s">
-        <v>236</v>
       </c>
       <c r="AE52" s="24">
         <v>1100</v>
@@ -6283,13 +6384,13 @@
     </row>
     <row r="53" spans="1:43">
       <c r="A53" s="16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B53" s="24"/>
       <c r="C53" s="24"/>
       <c r="D53" s="24"/>
       <c r="E53" s="16" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="F53" s="24"/>
       <c r="G53" s="24"/>
@@ -6307,9 +6408,11 @@
       <c r="Q53" s="24"/>
       <c r="R53" s="24"/>
       <c r="S53" s="24"/>
-      <c r="T53" s="24"/>
+      <c r="T53" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U53" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V53" s="11">
         <v>42694</v>
@@ -6320,13 +6423,13 @@
       <c r="Z53" s="24"/>
       <c r="AA53" s="24"/>
       <c r="AB53" s="21" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AC53" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD53" s="22" t="s">
         <v>235</v>
-      </c>
-      <c r="AD53" s="22" t="s">
-        <v>237</v>
       </c>
       <c r="AE53" s="24">
         <v>1100</v>
@@ -6368,13 +6471,13 @@
     </row>
     <row r="54" spans="1:43">
       <c r="A54" s="16" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B54" s="24"/>
       <c r="C54" s="24"/>
       <c r="D54" s="24"/>
       <c r="E54" s="16" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="F54" s="24"/>
       <c r="G54" s="24"/>
@@ -6392,9 +6495,11 @@
       <c r="Q54" s="24"/>
       <c r="R54" s="24"/>
       <c r="S54" s="24"/>
-      <c r="T54" s="24"/>
+      <c r="T54" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U54" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V54" s="11">
         <v>42695</v>
@@ -6405,13 +6510,13 @@
       <c r="Z54" s="24"/>
       <c r="AA54" s="24"/>
       <c r="AB54" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC54" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD54" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC54" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD54" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE54" s="24">
         <v>1100</v>
@@ -6453,13 +6558,13 @@
     </row>
     <row r="55" spans="1:43">
       <c r="A55" s="16" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B55" s="24"/>
       <c r="C55" s="24"/>
       <c r="D55" s="24"/>
       <c r="E55" s="16" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F55" s="24"/>
       <c r="G55" s="24"/>
@@ -6477,9 +6582,11 @@
       <c r="Q55" s="24"/>
       <c r="R55" s="24"/>
       <c r="S55" s="24"/>
-      <c r="T55" s="24"/>
+      <c r="T55" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U55" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V55" s="11">
         <v>42696</v>
@@ -6490,13 +6597,13 @@
       <c r="Z55" s="24"/>
       <c r="AA55" s="24"/>
       <c r="AB55" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC55" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD55" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC55" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD55" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE55" s="24">
         <v>1100</v>
@@ -6538,13 +6645,13 @@
     </row>
     <row r="56" spans="1:43">
       <c r="A56" s="16" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B56" s="24"/>
       <c r="C56" s="24"/>
       <c r="D56" s="24"/>
       <c r="E56" s="16" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F56" s="24"/>
       <c r="G56" s="24"/>
@@ -6562,9 +6669,11 @@
       <c r="Q56" s="24"/>
       <c r="R56" s="24"/>
       <c r="S56" s="24"/>
-      <c r="T56" s="24"/>
+      <c r="T56" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U56" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V56" s="11">
         <v>42697</v>
@@ -6575,13 +6684,13 @@
       <c r="Z56" s="24"/>
       <c r="AA56" s="24"/>
       <c r="AB56" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC56" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD56" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC56" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD56" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE56" s="24">
         <v>1100</v>
@@ -6623,13 +6732,13 @@
     </row>
     <row r="57" spans="1:43">
       <c r="A57" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B57" s="24"/>
       <c r="C57" s="24"/>
       <c r="D57" s="24"/>
       <c r="E57" s="16" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="F57" s="24"/>
       <c r="G57" s="24"/>
@@ -6647,9 +6756,11 @@
       <c r="Q57" s="24"/>
       <c r="R57" s="24"/>
       <c r="S57" s="24"/>
-      <c r="T57" s="24"/>
+      <c r="T57" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U57" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V57" s="11">
         <v>42698</v>
@@ -6660,13 +6771,13 @@
       <c r="Z57" s="24"/>
       <c r="AA57" s="24"/>
       <c r="AB57" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC57" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD57" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC57" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD57" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE57" s="24">
         <v>1100</v>
@@ -6708,13 +6819,13 @@
     </row>
     <row r="58" spans="1:43">
       <c r="A58" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B58" s="24"/>
       <c r="C58" s="24"/>
       <c r="D58" s="24"/>
       <c r="E58" s="16" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F58" s="24"/>
       <c r="G58" s="24"/>
@@ -6732,9 +6843,11 @@
       <c r="Q58" s="24"/>
       <c r="R58" s="24"/>
       <c r="S58" s="24"/>
-      <c r="T58" s="24"/>
+      <c r="T58" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U58" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V58" s="11">
         <v>42699</v>
@@ -6745,13 +6858,13 @@
       <c r="Z58" s="24"/>
       <c r="AA58" s="24"/>
       <c r="AB58" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC58" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD58" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC58" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD58" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE58" s="24">
         <v>1100</v>
@@ -6793,13 +6906,13 @@
     </row>
     <row r="59" spans="1:43">
       <c r="A59" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B59" s="24"/>
       <c r="C59" s="24"/>
       <c r="D59" s="24"/>
       <c r="E59" s="16" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="F59" s="24"/>
       <c r="G59" s="24"/>
@@ -6817,9 +6930,11 @@
       <c r="Q59" s="24"/>
       <c r="R59" s="24"/>
       <c r="S59" s="24"/>
-      <c r="T59" s="24"/>
+      <c r="T59" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U59" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V59" s="11">
         <v>42700</v>
@@ -6830,13 +6945,13 @@
       <c r="Z59" s="24"/>
       <c r="AA59" s="24"/>
       <c r="AB59" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC59" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD59" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC59" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD59" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE59" s="24">
         <v>1100</v>
@@ -6878,13 +6993,13 @@
     </row>
     <row r="60" spans="1:43">
       <c r="A60" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B60" s="24"/>
       <c r="C60" s="24"/>
       <c r="D60" s="24"/>
       <c r="E60" s="16" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="F60" s="24"/>
       <c r="G60" s="24"/>
@@ -6902,9 +7017,11 @@
       <c r="Q60" s="24"/>
       <c r="R60" s="24"/>
       <c r="S60" s="24"/>
-      <c r="T60" s="24"/>
+      <c r="T60" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U60" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V60" s="11">
         <v>42701</v>
@@ -6915,13 +7032,13 @@
       <c r="Z60" s="24"/>
       <c r="AA60" s="24"/>
       <c r="AB60" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC60" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD60" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC60" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD60" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE60" s="24">
         <v>1100</v>
@@ -6963,13 +7080,13 @@
     </row>
     <row r="61" spans="1:43">
       <c r="A61" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B61" s="24"/>
       <c r="C61" s="24"/>
       <c r="D61" s="24"/>
       <c r="E61" s="16" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="F61" s="24"/>
       <c r="G61" s="24"/>
@@ -6987,9 +7104,11 @@
       <c r="Q61" s="24"/>
       <c r="R61" s="24"/>
       <c r="S61" s="24"/>
-      <c r="T61" s="24"/>
+      <c r="T61" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U61" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V61" s="11">
         <v>42702</v>
@@ -7000,13 +7119,13 @@
       <c r="Z61" s="24"/>
       <c r="AA61" s="24"/>
       <c r="AB61" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC61" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD61" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC61" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD61" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE61" s="24">
         <v>1100</v>
@@ -7048,13 +7167,13 @@
     </row>
     <row r="62" spans="1:43">
       <c r="A62" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B62" s="24"/>
       <c r="C62" s="24"/>
       <c r="D62" s="24"/>
       <c r="E62" s="16" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F62" s="24"/>
       <c r="G62" s="24"/>
@@ -7072,9 +7191,11 @@
       <c r="Q62" s="24"/>
       <c r="R62" s="24"/>
       <c r="S62" s="24"/>
-      <c r="T62" s="24"/>
+      <c r="T62" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U62" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V62" s="11">
         <v>42703</v>
@@ -7085,13 +7206,13 @@
       <c r="Z62" s="24"/>
       <c r="AA62" s="24"/>
       <c r="AB62" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC62" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD62" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC62" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD62" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE62" s="24">
         <v>1100</v>
@@ -7133,13 +7254,13 @@
     </row>
     <row r="63" spans="1:43">
       <c r="A63" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B63" s="24"/>
       <c r="C63" s="24"/>
       <c r="D63" s="24"/>
       <c r="E63" s="16" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F63" s="24"/>
       <c r="G63" s="24"/>
@@ -7157,9 +7278,11 @@
       <c r="Q63" s="24"/>
       <c r="R63" s="24"/>
       <c r="S63" s="24"/>
-      <c r="T63" s="24"/>
+      <c r="T63" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U63" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V63" s="11">
         <v>42704</v>
@@ -7170,13 +7293,13 @@
       <c r="Z63" s="24"/>
       <c r="AA63" s="24"/>
       <c r="AB63" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC63" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD63" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC63" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD63" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE63" s="24">
         <v>1100</v>
@@ -7218,13 +7341,13 @@
     </row>
     <row r="64" spans="1:43">
       <c r="A64" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B64" s="24"/>
       <c r="C64" s="24"/>
       <c r="D64" s="24"/>
       <c r="E64" s="16" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F64" s="24"/>
       <c r="G64" s="24"/>
@@ -7242,9 +7365,11 @@
       <c r="Q64" s="24"/>
       <c r="R64" s="24"/>
       <c r="S64" s="24"/>
-      <c r="T64" s="24"/>
+      <c r="T64" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U64" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V64" s="11">
         <v>42705</v>
@@ -7255,13 +7380,13 @@
       <c r="Z64" s="24"/>
       <c r="AA64" s="24"/>
       <c r="AB64" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC64" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD64" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC64" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD64" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE64" s="24">
         <v>1100</v>
@@ -7303,13 +7428,13 @@
     </row>
     <row r="65" spans="1:43">
       <c r="A65" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B65" s="24"/>
       <c r="C65" s="24"/>
       <c r="D65" s="24"/>
       <c r="E65" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="F65" s="24"/>
       <c r="G65" s="24"/>
@@ -7327,9 +7452,11 @@
       <c r="Q65" s="24"/>
       <c r="R65" s="24"/>
       <c r="S65" s="24"/>
-      <c r="T65" s="24"/>
+      <c r="T65" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U65" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V65" s="11">
         <v>42706</v>
@@ -7340,13 +7467,13 @@
       <c r="Z65" s="24"/>
       <c r="AA65" s="24"/>
       <c r="AB65" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC65" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD65" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC65" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD65" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE65" s="24">
         <v>1100</v>
@@ -7388,13 +7515,13 @@
     </row>
     <row r="66" spans="1:43">
       <c r="A66" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B66" s="24"/>
       <c r="C66" s="24"/>
       <c r="D66" s="24"/>
       <c r="E66" s="16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F66" s="24"/>
       <c r="G66" s="24"/>
@@ -7412,9 +7539,11 @@
       <c r="Q66" s="24"/>
       <c r="R66" s="24"/>
       <c r="S66" s="24"/>
-      <c r="T66" s="24"/>
+      <c r="T66" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U66" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V66" s="11">
         <v>42707</v>
@@ -7425,13 +7554,13 @@
       <c r="Z66" s="24"/>
       <c r="AA66" s="24"/>
       <c r="AB66" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC66" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD66" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC66" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD66" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE66" s="24">
         <v>1100</v>
@@ -7473,13 +7602,13 @@
     </row>
     <row r="67" spans="1:43">
       <c r="A67" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B67" s="24"/>
       <c r="C67" s="24"/>
       <c r="D67" s="24"/>
       <c r="E67" s="16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F67" s="24"/>
       <c r="G67" s="24"/>
@@ -7497,9 +7626,11 @@
       <c r="Q67" s="24"/>
       <c r="R67" s="24"/>
       <c r="S67" s="24"/>
-      <c r="T67" s="24"/>
+      <c r="T67" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U67" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V67" s="11">
         <v>42708</v>
@@ -7510,13 +7641,13 @@
       <c r="Z67" s="24"/>
       <c r="AA67" s="24"/>
       <c r="AB67" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC67" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD67" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC67" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD67" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE67" s="24">
         <v>1100</v>
@@ -7558,13 +7689,13 @@
     </row>
     <row r="68" spans="1:43">
       <c r="A68" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B68" s="24"/>
       <c r="C68" s="24"/>
       <c r="D68" s="24"/>
       <c r="E68" s="16" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F68" s="24"/>
       <c r="G68" s="24"/>
@@ -7582,9 +7713,11 @@
       <c r="Q68" s="24"/>
       <c r="R68" s="24"/>
       <c r="S68" s="24"/>
-      <c r="T68" s="24"/>
+      <c r="T68" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U68" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V68" s="11">
         <v>42709</v>
@@ -7595,13 +7728,13 @@
       <c r="Z68" s="24"/>
       <c r="AA68" s="24"/>
       <c r="AB68" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC68" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD68" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC68" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD68" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE68" s="24">
         <v>1100</v>
@@ -7643,13 +7776,13 @@
     </row>
     <row r="69" spans="1:43">
       <c r="A69" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B69" s="24"/>
       <c r="C69" s="24"/>
       <c r="D69" s="24"/>
       <c r="E69" s="16" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="F69" s="24"/>
       <c r="G69" s="24"/>
@@ -7667,9 +7800,11 @@
       <c r="Q69" s="24"/>
       <c r="R69" s="24"/>
       <c r="S69" s="24"/>
-      <c r="T69" s="24"/>
+      <c r="T69" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U69" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V69" s="11">
         <v>42710</v>
@@ -7680,13 +7815,13 @@
       <c r="Z69" s="24"/>
       <c r="AA69" s="24"/>
       <c r="AB69" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC69" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD69" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC69" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD69" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE69" s="24">
         <v>1100</v>
@@ -7728,13 +7863,13 @@
     </row>
     <row r="70" spans="1:43">
       <c r="A70" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B70" s="24"/>
       <c r="C70" s="24"/>
       <c r="D70" s="24"/>
       <c r="E70" s="16" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="F70" s="24"/>
       <c r="G70" s="24"/>
@@ -7752,9 +7887,11 @@
       <c r="Q70" s="24"/>
       <c r="R70" s="24"/>
       <c r="S70" s="24"/>
-      <c r="T70" s="24"/>
+      <c r="T70" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U70" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V70" s="11">
         <v>42711</v>
@@ -7765,13 +7902,13 @@
       <c r="Z70" s="24"/>
       <c r="AA70" s="24"/>
       <c r="AB70" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC70" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD70" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC70" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD70" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE70" s="24">
         <v>1100</v>
@@ -7813,13 +7950,13 @@
     </row>
     <row r="71" spans="1:43">
       <c r="A71" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B71" s="24"/>
       <c r="C71" s="24"/>
       <c r="D71" s="24"/>
       <c r="E71" s="16" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F71" s="24"/>
       <c r="G71" s="24"/>
@@ -7837,9 +7974,11 @@
       <c r="Q71" s="24"/>
       <c r="R71" s="24"/>
       <c r="S71" s="24"/>
-      <c r="T71" s="24"/>
+      <c r="T71" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U71" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V71" s="11">
         <v>42712</v>
@@ -7850,13 +7989,13 @@
       <c r="Z71" s="24"/>
       <c r="AA71" s="24"/>
       <c r="AB71" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC71" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD71" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC71" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD71" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE71" s="24">
         <v>1100</v>
@@ -7898,13 +8037,13 @@
     </row>
     <row r="72" spans="1:43">
       <c r="A72" s="17" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B72" s="24"/>
       <c r="C72" s="24"/>
       <c r="D72" s="24"/>
       <c r="E72" s="16" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F72" s="24"/>
       <c r="G72" s="24"/>
@@ -7922,9 +8061,11 @@
       <c r="Q72" s="24"/>
       <c r="R72" s="24"/>
       <c r="S72" s="24"/>
-      <c r="T72" s="24"/>
+      <c r="T72" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U72" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V72" s="11">
         <v>42713</v>
@@ -7935,13 +8076,13 @@
       <c r="Z72" s="24"/>
       <c r="AA72" s="24"/>
       <c r="AB72" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC72" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD72" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC72" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD72" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE72" s="24">
         <v>1100</v>
@@ -7983,13 +8124,13 @@
     </row>
     <row r="73" spans="1:43">
       <c r="A73" s="17" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B73" s="24"/>
       <c r="C73" s="24"/>
       <c r="D73" s="24"/>
       <c r="E73" s="16" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F73" s="24"/>
       <c r="G73" s="24"/>
@@ -8007,9 +8148,11 @@
       <c r="Q73" s="24"/>
       <c r="R73" s="24"/>
       <c r="S73" s="24"/>
-      <c r="T73" s="24"/>
+      <c r="T73" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U73" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V73" s="11">
         <v>42714</v>
@@ -8020,13 +8163,13 @@
       <c r="Z73" s="24"/>
       <c r="AA73" s="24"/>
       <c r="AB73" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC73" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD73" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC73" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD73" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE73" s="24">
         <v>1100</v>
@@ -8068,13 +8211,13 @@
     </row>
     <row r="74" spans="1:43">
       <c r="A74" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B74" s="24"/>
       <c r="C74" s="24"/>
       <c r="D74" s="24"/>
       <c r="E74" s="16" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F74" s="24"/>
       <c r="G74" s="24"/>
@@ -8092,9 +8235,11 @@
       <c r="Q74" s="24"/>
       <c r="R74" s="24"/>
       <c r="S74" s="24"/>
-      <c r="T74" s="24"/>
+      <c r="T74" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U74" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V74" s="11">
         <v>42715</v>
@@ -8105,13 +8250,13 @@
       <c r="Z74" s="24"/>
       <c r="AA74" s="24"/>
       <c r="AB74" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC74" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD74" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC74" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD74" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE74" s="24">
         <v>1100</v>
@@ -8153,13 +8298,13 @@
     </row>
     <row r="75" spans="1:43">
       <c r="A75" s="17" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B75" s="24"/>
       <c r="C75" s="24"/>
       <c r="D75" s="24"/>
       <c r="E75" s="16" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F75" s="24"/>
       <c r="G75" s="24"/>
@@ -8177,9 +8322,11 @@
       <c r="Q75" s="24"/>
       <c r="R75" s="24"/>
       <c r="S75" s="24"/>
-      <c r="T75" s="24"/>
+      <c r="T75" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U75" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V75" s="11">
         <v>42716</v>
@@ -8190,13 +8337,13 @@
       <c r="Z75" s="24"/>
       <c r="AA75" s="24"/>
       <c r="AB75" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC75" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD75" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC75" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD75" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE75" s="24">
         <v>1100</v>
@@ -8238,13 +8385,13 @@
     </row>
     <row r="76" spans="1:43">
       <c r="A76" s="17" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B76" s="24"/>
       <c r="C76" s="24"/>
       <c r="D76" s="24"/>
       <c r="E76" s="16" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F76" s="24"/>
       <c r="G76" s="24"/>
@@ -8262,9 +8409,11 @@
       <c r="Q76" s="24"/>
       <c r="R76" s="24"/>
       <c r="S76" s="24"/>
-      <c r="T76" s="24"/>
+      <c r="T76" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U76" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V76" s="11">
         <v>42717</v>
@@ -8275,13 +8424,13 @@
       <c r="Z76" s="24"/>
       <c r="AA76" s="24"/>
       <c r="AB76" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC76" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD76" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC76" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD76" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE76" s="24">
         <v>1100</v>
@@ -8323,13 +8472,13 @@
     </row>
     <row r="77" spans="1:43">
       <c r="A77" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B77" s="24"/>
       <c r="C77" s="24"/>
       <c r="D77" s="24"/>
       <c r="E77" s="16" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F77" s="24"/>
       <c r="G77" s="24"/>
@@ -8347,9 +8496,11 @@
       <c r="Q77" s="24"/>
       <c r="R77" s="24"/>
       <c r="S77" s="24"/>
-      <c r="T77" s="24"/>
+      <c r="T77" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U77" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V77" s="11">
         <v>42718</v>
@@ -8360,13 +8511,13 @@
       <c r="Z77" s="24"/>
       <c r="AA77" s="24"/>
       <c r="AB77" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC77" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD77" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC77" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD77" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE77" s="24">
         <v>1100</v>
@@ -8408,13 +8559,13 @@
     </row>
     <row r="78" spans="1:43">
       <c r="A78" s="17" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B78" s="24"/>
       <c r="C78" s="24"/>
       <c r="D78" s="24"/>
       <c r="E78" s="16" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F78" s="24"/>
       <c r="G78" s="24"/>
@@ -8432,9 +8583,11 @@
       <c r="Q78" s="24"/>
       <c r="R78" s="24"/>
       <c r="S78" s="24"/>
-      <c r="T78" s="24"/>
+      <c r="T78" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U78" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V78" s="11">
         <v>42719</v>
@@ -8445,13 +8598,13 @@
       <c r="Z78" s="24"/>
       <c r="AA78" s="24"/>
       <c r="AB78" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC78" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD78" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC78" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD78" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE78" s="24">
         <v>1100</v>
@@ -8493,13 +8646,13 @@
     </row>
     <row r="79" spans="1:43">
       <c r="A79" s="17" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B79" s="24"/>
       <c r="C79" s="24"/>
       <c r="D79" s="24"/>
       <c r="E79" s="16" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F79" s="24"/>
       <c r="G79" s="24"/>
@@ -8517,9 +8670,11 @@
       <c r="Q79" s="24"/>
       <c r="R79" s="24"/>
       <c r="S79" s="24"/>
-      <c r="T79" s="24"/>
+      <c r="T79" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U79" s="18" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V79" s="11">
         <v>42720</v>
@@ -8530,13 +8685,13 @@
       <c r="Z79" s="24"/>
       <c r="AA79" s="24"/>
       <c r="AB79" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC79" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD79" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC79" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD79" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE79" s="24">
         <v>1100</v>
@@ -8578,13 +8733,13 @@
     </row>
     <row r="80" spans="1:43">
       <c r="A80" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B80" s="24"/>
       <c r="C80" s="24"/>
       <c r="D80" s="24"/>
       <c r="E80" s="16" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F80" s="24"/>
       <c r="G80" s="24"/>
@@ -8602,9 +8757,11 @@
       <c r="Q80" s="24"/>
       <c r="R80" s="24"/>
       <c r="S80" s="24"/>
-      <c r="T80" s="24"/>
+      <c r="T80" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U80" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V80" s="11">
         <v>42721</v>
@@ -8615,13 +8772,13 @@
       <c r="Z80" s="24"/>
       <c r="AA80" s="24"/>
       <c r="AB80" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC80" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD80" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC80" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD80" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE80" s="24">
         <v>1100</v>
@@ -8663,13 +8820,13 @@
     </row>
     <row r="81" spans="1:43">
       <c r="A81" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B81" s="24"/>
       <c r="C81" s="24"/>
       <c r="D81" s="24"/>
       <c r="E81" s="16" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F81" s="24"/>
       <c r="G81" s="24"/>
@@ -8687,9 +8844,11 @@
       <c r="Q81" s="24"/>
       <c r="R81" s="24"/>
       <c r="S81" s="24"/>
-      <c r="T81" s="24"/>
+      <c r="T81" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U81" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V81" s="11">
         <v>42722</v>
@@ -8700,13 +8859,13 @@
       <c r="Z81" s="24"/>
       <c r="AA81" s="24"/>
       <c r="AB81" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC81" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD81" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC81" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD81" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE81" s="24">
         <v>1100</v>
@@ -8748,13 +8907,13 @@
     </row>
     <row r="82" spans="1:43">
       <c r="A82" s="17" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B82" s="24"/>
       <c r="C82" s="24"/>
       <c r="D82" s="24"/>
       <c r="E82" s="6" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="F82" s="24"/>
       <c r="G82" s="24"/>
@@ -8772,9 +8931,11 @@
       <c r="Q82" s="24"/>
       <c r="R82" s="24"/>
       <c r="S82" s="24"/>
-      <c r="T82" s="24"/>
+      <c r="T82" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U82" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V82" s="11">
         <v>42723</v>
@@ -8785,13 +8946,13 @@
       <c r="Z82" s="24"/>
       <c r="AA82" s="24"/>
       <c r="AB82" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC82" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD82" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC82" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD82" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE82" s="24">
         <v>1100</v>
@@ -8833,13 +8994,13 @@
     </row>
     <row r="83" spans="1:43">
       <c r="A83" s="17" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B83" s="24"/>
       <c r="C83" s="24"/>
       <c r="D83" s="24"/>
       <c r="E83" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="F83" s="24"/>
       <c r="G83" s="24"/>
@@ -8857,9 +9018,11 @@
       <c r="Q83" s="24"/>
       <c r="R83" s="24"/>
       <c r="S83" s="24"/>
-      <c r="T83" s="24"/>
+      <c r="T83" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U83" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V83" s="11">
         <v>42724</v>
@@ -8870,13 +9033,13 @@
       <c r="Z83" s="24"/>
       <c r="AA83" s="24"/>
       <c r="AB83" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC83" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD83" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC83" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD83" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE83" s="24">
         <v>1100</v>
@@ -8918,13 +9081,13 @@
     </row>
     <row r="84" spans="1:43">
       <c r="A84" s="17" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B84" s="24"/>
       <c r="C84" s="24"/>
       <c r="D84" s="24"/>
       <c r="E84" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="F84" s="24"/>
       <c r="G84" s="24"/>
@@ -8942,9 +9105,11 @@
       <c r="Q84" s="24"/>
       <c r="R84" s="24"/>
       <c r="S84" s="24"/>
-      <c r="T84" s="24"/>
+      <c r="T84" s="24" t="s">
+        <v>254</v>
+      </c>
       <c r="U84" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V84" s="11">
         <v>42725</v>
@@ -8955,13 +9120,13 @@
       <c r="Z84" s="24"/>
       <c r="AA84" s="24"/>
       <c r="AB84" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC84" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD84" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC84" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD84" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE84" s="24">
         <v>1100</v>
@@ -9003,13 +9168,13 @@
     </row>
     <row r="85" spans="1:43">
       <c r="A85" s="17" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B85" s="24"/>
       <c r="C85" s="24"/>
       <c r="D85" s="24"/>
       <c r="E85" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F85" s="24"/>
       <c r="G85" s="24"/>
@@ -9027,9 +9192,11 @@
       <c r="Q85" s="24"/>
       <c r="R85" s="24"/>
       <c r="S85" s="24"/>
-      <c r="T85" s="24"/>
+      <c r="T85" s="24" t="s">
+        <v>255</v>
+      </c>
       <c r="U85" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V85" s="11">
         <v>42726</v>
@@ -9040,13 +9207,13 @@
       <c r="Z85" s="24"/>
       <c r="AA85" s="24"/>
       <c r="AB85" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC85" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD85" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC85" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD85" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE85" s="24">
         <v>1100</v>
@@ -9088,13 +9255,13 @@
     </row>
     <row r="86" spans="1:43">
       <c r="A86" s="17" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B86" s="24"/>
       <c r="C86" s="24"/>
       <c r="D86" s="24"/>
       <c r="E86" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="F86" s="24"/>
       <c r="G86" s="24"/>
@@ -9112,9 +9279,11 @@
       <c r="Q86" s="24"/>
       <c r="R86" s="24"/>
       <c r="S86" s="24"/>
-      <c r="T86" s="24"/>
+      <c r="T86" s="24" t="s">
+        <v>255</v>
+      </c>
       <c r="U86" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V86" s="11">
         <v>42727</v>
@@ -9125,13 +9294,13 @@
       <c r="Z86" s="24"/>
       <c r="AA86" s="24"/>
       <c r="AB86" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC86" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD86" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC86" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD86" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE86" s="24">
         <v>1100</v>
@@ -9173,13 +9342,13 @@
     </row>
     <row r="87" spans="1:43">
       <c r="A87" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B87" s="24"/>
       <c r="C87" s="24"/>
       <c r="D87" s="24"/>
       <c r="E87" s="16" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="F87" s="24"/>
       <c r="G87" s="24"/>
@@ -9197,9 +9366,11 @@
       <c r="Q87" s="24"/>
       <c r="R87" s="24"/>
       <c r="S87" s="24"/>
-      <c r="T87" s="24"/>
+      <c r="T87" s="24" t="s">
+        <v>255</v>
+      </c>
       <c r="U87" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V87" s="11">
         <v>42728</v>
@@ -9210,13 +9381,13 @@
       <c r="Z87" s="24"/>
       <c r="AA87" s="24"/>
       <c r="AB87" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC87" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD87" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC87" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD87" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE87" s="24">
         <v>1100</v>
@@ -9258,13 +9429,13 @@
     </row>
     <row r="88" spans="1:43">
       <c r="A88" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B88" s="24"/>
       <c r="C88" s="24"/>
       <c r="D88" s="24"/>
       <c r="E88" s="16" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="F88" s="24"/>
       <c r="G88" s="24"/>
@@ -9282,9 +9453,11 @@
       <c r="Q88" s="24"/>
       <c r="R88" s="24"/>
       <c r="S88" s="24"/>
-      <c r="T88" s="24"/>
+      <c r="T88" s="24" t="s">
+        <v>255</v>
+      </c>
       <c r="U88" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V88" s="11">
         <v>42729</v>
@@ -9295,13 +9468,13 @@
       <c r="Z88" s="24"/>
       <c r="AA88" s="24"/>
       <c r="AB88" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC88" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD88" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC88" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD88" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE88" s="24">
         <v>1100</v>
@@ -9343,13 +9516,13 @@
     </row>
     <row r="89" spans="1:43">
       <c r="A89" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B89" s="24"/>
       <c r="C89" s="24"/>
       <c r="D89" s="24"/>
       <c r="E89" s="16" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="F89" s="24"/>
       <c r="G89" s="24"/>
@@ -9367,9 +9540,11 @@
       <c r="Q89" s="24"/>
       <c r="R89" s="24"/>
       <c r="S89" s="24"/>
-      <c r="T89" s="24"/>
+      <c r="T89" s="24" t="s">
+        <v>255</v>
+      </c>
       <c r="U89" s="18" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="V89" s="11">
         <v>42730</v>
@@ -9380,13 +9555,13 @@
       <c r="Z89" s="24"/>
       <c r="AA89" s="24"/>
       <c r="AB89" s="21" t="s">
+        <v>232</v>
+      </c>
+      <c r="AC89" s="21" t="s">
+        <v>233</v>
+      </c>
+      <c r="AD89" s="22" t="s">
         <v>234</v>
-      </c>
-      <c r="AC89" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="AD89" s="22" t="s">
-        <v>236</v>
       </c>
       <c r="AE89" s="24">
         <v>1100</v>
